--- a/文档/数据库设计.xlsx
+++ b/文档/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t>TABLE_COMMENTS</t>
   </si>
@@ -115,21 +115,27 @@
     <t>czbh</t>
   </si>
   <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>餐桌编号</t>
+  </si>
+  <si>
+    <t>czewm</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>餐桌二维码</t>
+  </si>
+  <si>
+    <t>czzt</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>餐桌编号</t>
-  </si>
-  <si>
-    <t>czewm</t>
-  </si>
-  <si>
-    <t>餐桌二维码</t>
-  </si>
-  <si>
-    <t>czzt</t>
-  </si>
-  <si>
     <t>餐桌状态（0为空闲，1为占座中）</t>
   </si>
   <si>
@@ -217,7 +223,16 @@
     <t>ddzt</t>
   </si>
   <si>
-    <t>订单状态（0为已结账，1为未结账）</t>
+    <t>订单状态（0为已结账，1为未结账，2为子订单）</t>
+  </si>
+  <si>
+    <t>ddsj</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>订单时间</t>
   </si>
 </sst>
 </file>
@@ -226,9 +241,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -254,6 +269,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -262,61 +358,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,7 +384,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,7 +399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,47 +412,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,187 +434,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +638,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -639,15 +672,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,8 +694,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,7 +704,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,21 +734,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -733,10 +742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,7 +754,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,10 +763,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,116 +775,116 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,7 +892,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1203,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1216,41 +1234,41 @@
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="40.125" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="11.25" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1330,7 +1348,6 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>22</v>
       </c>
@@ -1441,13 +1458,13 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -1458,25 +1475,25 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1"/>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1496,13 +1513,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1511,118 +1528,118 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1"/>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1642,56 +1659,56 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -1702,73 +1719,90 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:6">
+      <c r="A32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
